--- a/Co_simulation/Case 2/data.xlsx
+++ b/Co_simulation/Case 2/data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>time</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>pth_demand_half</t>
+  </si>
+  <si>
+    <t>constant1</t>
+  </si>
+  <si>
+    <t>constant_pth</t>
   </si>
 </sst>
 </file>
@@ -436,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S193"/>
+  <dimension ref="A1:U193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +458,7 @@
     <col min="9" max="9" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +513,14 @@
       <c r="S1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -566,8 +578,14 @@
       <c r="S2">
         <v>1.9550000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -625,8 +643,14 @@
       <c r="S3">
         <v>1.9525000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -684,8 +708,14 @@
       <c r="S4">
         <v>1.9424999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -743,8 +773,14 @@
       <c r="S5">
         <v>1.93</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -802,8 +838,14 @@
       <c r="S6">
         <v>1.9224999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -861,8 +903,14 @@
       <c r="S7">
         <v>1.905</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -920,8 +968,14 @@
       <c r="S8">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -979,8 +1033,14 @@
       <c r="S9">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1038,8 +1098,14 @@
       <c r="S10">
         <v>1.9550000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1097,8 +1163,14 @@
       <c r="S11">
         <v>1.9575</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1156,8 +1228,14 @@
       <c r="S12">
         <v>1.9475</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1215,8 +1293,14 @@
       <c r="S13">
         <v>1.93</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1274,8 +1358,14 @@
       <c r="S14">
         <v>1.9224999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1333,8 +1423,14 @@
       <c r="S15">
         <v>1.91</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1392,8 +1488,14 @@
       <c r="S16">
         <v>1.91</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1451,8 +1553,14 @@
       <c r="S17">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1510,8 +1618,14 @@
       <c r="S18">
         <v>1.93</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1569,8 +1683,14 @@
       <c r="S19">
         <v>1.9450000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1628,8 +1748,14 @@
       <c r="S20">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1687,8 +1813,14 @@
       <c r="S21">
         <v>1.9525000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1746,8 +1878,14 @@
       <c r="S22">
         <v>1.9575</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1805,8 +1943,14 @@
       <c r="S23">
         <v>1.9624999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1864,8 +2008,14 @@
       <c r="S24">
         <v>1.9650000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1923,8 +2073,14 @@
       <c r="S25">
         <v>1.9675</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1982,8 +2138,14 @@
       <c r="S26">
         <v>1.91</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2041,8 +2203,14 @@
       <c r="S27">
         <v>1.905</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2100,8 +2268,14 @@
       <c r="S28">
         <v>1.905</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2159,8 +2333,14 @@
       <c r="S29">
         <v>1.9075</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2218,8 +2398,14 @@
       <c r="S30">
         <v>1.9075</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2277,8 +2463,14 @@
       <c r="S31">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2336,8 +2528,14 @@
       <c r="S32">
         <v>1.895</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2395,8 +2593,14 @@
       <c r="S33">
         <v>1.8975</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2454,8 +2658,14 @@
       <c r="S34">
         <v>1.8925000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2513,8 +2723,14 @@
       <c r="S35">
         <v>1.8900000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2572,8 +2788,14 @@
       <c r="S36">
         <v>1.8925000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2631,8 +2853,14 @@
       <c r="S37">
         <v>1.8900000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2690,8 +2918,14 @@
       <c r="S38">
         <v>1.8975</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2749,8 +2983,14 @@
       <c r="S39">
         <v>1.8825000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2808,8 +3048,14 @@
       <c r="S40">
         <v>1.8774999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2867,8 +3113,14 @@
       <c r="S41">
         <v>1.8774999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2926,8 +3178,14 @@
       <c r="S42">
         <v>1.8900000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2985,8 +3243,14 @@
       <c r="S43">
         <v>1.895</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3044,8 +3308,14 @@
       <c r="S44">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3103,8 +3373,14 @@
       <c r="S45">
         <v>1.9450000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3162,8 +3438,14 @@
       <c r="S46">
         <v>1.9525000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3221,8 +3503,14 @@
       <c r="S47">
         <v>1.9624999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3280,8 +3568,14 @@
       <c r="S48">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3339,8 +3633,14 @@
       <c r="S49">
         <v>1.9975000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3398,8 +3698,14 @@
       <c r="S50">
         <v>1.9924999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3457,8 +3763,14 @@
       <c r="S51">
         <v>1.9875</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3516,8 +3828,14 @@
       <c r="S52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3575,8 +3893,14 @@
       <c r="S53">
         <v>1.9975000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3634,8 +3958,14 @@
       <c r="S54">
         <v>2.0024999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3693,8 +4023,14 @@
       <c r="S55">
         <v>2.0024999999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3752,8 +4088,14 @@
       <c r="S56">
         <v>1.9924999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3811,8 +4153,14 @@
       <c r="S57">
         <v>1.9724999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3870,8 +4218,14 @@
       <c r="S58">
         <v>1.925</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3929,8 +4283,14 @@
       <c r="S59">
         <v>1.8925000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3988,8 +4348,14 @@
       <c r="S60">
         <v>1.8374999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4047,8 +4413,14 @@
       <c r="S61">
         <v>1.8674999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4106,8 +4478,14 @@
       <c r="S62">
         <v>1.8125</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4165,8 +4543,14 @@
       <c r="S63">
         <v>1.7875000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4224,8 +4608,14 @@
       <c r="S64">
         <v>1.8075000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4283,8 +4673,14 @@
       <c r="S65">
         <v>1.7749999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4342,8 +4738,14 @@
       <c r="S66">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4401,8 +4803,14 @@
       <c r="S67">
         <v>1.7650000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4460,8 +4868,14 @@
       <c r="S68">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4519,8 +4933,14 @@
       <c r="S69">
         <v>1.7725</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4578,8 +4998,14 @@
       <c r="S70">
         <v>1.7875000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4637,8 +5063,14 @@
       <c r="S71">
         <v>1.82</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4696,8 +5128,14 @@
       <c r="S72">
         <v>1.845</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4755,8 +5193,14 @@
       <c r="S73">
         <v>1.8475000000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4814,8 +5258,14 @@
       <c r="S74">
         <v>1.71</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4873,8 +5323,14 @@
       <c r="S75">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4932,8 +5388,14 @@
       <c r="S76">
         <v>1.71</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4991,8 +5453,14 @@
       <c r="S77">
         <v>1.7250000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5050,8 +5518,14 @@
       <c r="S78">
         <v>1.7375</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5109,8 +5583,14 @@
       <c r="S79">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5168,8 +5648,14 @@
       <c r="S80">
         <v>1.7524999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5227,8 +5713,14 @@
       <c r="S81">
         <v>1.7175</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5286,8 +5778,14 @@
       <c r="S82">
         <v>1.68</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5345,8 +5843,14 @@
       <c r="S83">
         <v>1.6274999999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5404,8 +5908,14 @@
       <c r="S84">
         <v>1.57</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5463,8 +5973,14 @@
       <c r="S85">
         <v>1.5150000000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5522,8 +6038,14 @@
       <c r="S86">
         <v>1.5425</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5581,8 +6103,14 @@
       <c r="S87">
         <v>1.5549999999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5640,8 +6168,14 @@
       <c r="S88">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5699,8 +6233,14 @@
       <c r="S89">
         <v>1.5249999999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5758,8 +6298,14 @@
       <c r="S90">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5817,8 +6363,14 @@
       <c r="S91">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5876,8 +6428,14 @@
       <c r="S92">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5935,8 +6493,14 @@
       <c r="S93">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5994,8 +6558,14 @@
       <c r="S94">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -6053,8 +6623,14 @@
       <c r="S95">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -6112,8 +6688,14 @@
       <c r="S96">
         <v>1.5024999999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6171,8 +6753,14 @@
       <c r="S97">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -6230,8 +6818,14 @@
       <c r="S98">
         <v>1.66</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6289,8 +6883,14 @@
       <c r="S99">
         <v>1.6575</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -6348,8 +6948,14 @@
       <c r="S100">
         <v>1.665</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6407,8 +7013,14 @@
       <c r="S101">
         <v>1.6625000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -6466,8 +7078,14 @@
       <c r="S102">
         <v>1.6675</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6525,8 +7143,14 @@
       <c r="S103">
         <v>1.675</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6584,8 +7208,14 @@
       <c r="S104">
         <v>1.675</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -6643,8 +7273,14 @@
       <c r="S105">
         <v>1.6950000000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -6702,8 +7338,14 @@
       <c r="S106">
         <v>1.6724999999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -6761,8 +7403,14 @@
       <c r="S107">
         <v>1.6575</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -6820,8 +7468,14 @@
       <c r="S108">
         <v>1.645</v>
       </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -6879,8 +7533,14 @@
       <c r="S109">
         <v>1.6225000000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -6938,8 +7598,14 @@
       <c r="S110">
         <v>1.615</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -6997,8 +7663,14 @@
       <c r="S111">
         <v>1.6825000000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -7056,8 +7728,14 @@
       <c r="S112">
         <v>1.6225000000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -7115,8 +7793,14 @@
       <c r="S113">
         <v>1.5825</v>
       </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -7174,8 +7858,14 @@
       <c r="S114">
         <v>1.58</v>
       </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -7233,8 +7923,14 @@
       <c r="S115">
         <v>1.5775000000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -7292,8 +7988,14 @@
       <c r="S116">
         <v>1.5874999999999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -7351,8 +8053,14 @@
       <c r="S117">
         <v>1.605</v>
       </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -7410,8 +8118,14 @@
       <c r="S118">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -7469,8 +8183,14 @@
       <c r="S119">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -7528,8 +8248,14 @@
       <c r="S120">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -7587,8 +8313,14 @@
       <c r="S121">
         <v>1.6525000000000001</v>
       </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -7646,8 +8378,14 @@
       <c r="S122">
         <v>1.7224999999999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -7705,8 +8443,14 @@
       <c r="S123">
         <v>1.7250000000000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -7764,8 +8508,14 @@
       <c r="S124">
         <v>1.7275</v>
       </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -7823,8 +8573,14 @@
       <c r="S125">
         <v>1.7275</v>
       </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -7882,8 +8638,14 @@
       <c r="S126">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -7941,8 +8703,14 @@
       <c r="S127">
         <v>1.7324999999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -8000,8 +8768,14 @@
       <c r="S128">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -8059,8 +8833,14 @@
       <c r="S129">
         <v>1.7324999999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -8118,8 +8898,14 @@
       <c r="S130">
         <v>1.7324999999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -8177,8 +8963,14 @@
       <c r="S131">
         <v>1.7324999999999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -8236,8 +9028,14 @@
       <c r="S132">
         <v>1.7250000000000001</v>
       </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -8295,8 +9093,14 @@
       <c r="S133">
         <v>1.7224999999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -8354,8 +9158,14 @@
       <c r="S134">
         <v>1.6825000000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -8413,8 +9223,14 @@
       <c r="S135">
         <v>1.7050000000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -8472,8 +9288,14 @@
       <c r="S136">
         <v>1.6775</v>
       </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -8531,8 +9353,14 @@
       <c r="S137">
         <v>1.6475</v>
       </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -8590,8 +9418,14 @@
       <c r="S138">
         <v>1.6475</v>
       </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -8649,8 +9483,14 @@
       <c r="S139">
         <v>1.665</v>
       </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -8708,8 +9548,14 @@
       <c r="S140">
         <v>1.66</v>
       </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T140">
+        <v>0</v>
+      </c>
+      <c r="U140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -8767,8 +9613,14 @@
       <c r="S141">
         <v>1.6875</v>
       </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -8826,8 +9678,14 @@
       <c r="S142">
         <v>1.7350000000000001</v>
       </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -8885,8 +9743,14 @@
       <c r="S143">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -8944,8 +9808,14 @@
       <c r="S144">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -9003,8 +9873,14 @@
       <c r="S145">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -9062,8 +9938,14 @@
       <c r="S146">
         <v>1.9475</v>
       </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -9121,8 +10003,14 @@
       <c r="S147">
         <v>1.9550000000000001</v>
       </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
@@ -9180,8 +10068,14 @@
       <c r="S148">
         <v>1.9724999999999999</v>
       </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -9239,8 +10133,14 @@
       <c r="S149">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
@@ -9298,8 +10198,14 @@
       <c r="S150">
         <v>1.9724999999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
@@ -9357,8 +10263,14 @@
       <c r="S151">
         <v>1.9450000000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
@@ -9416,8 +10328,14 @@
       <c r="S152">
         <v>1.9350000000000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T152">
+        <v>0</v>
+      </c>
+      <c r="U152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
@@ -9475,8 +10393,14 @@
       <c r="S153">
         <v>1.925</v>
       </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T153">
+        <v>0</v>
+      </c>
+      <c r="U153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
@@ -9534,8 +10458,14 @@
       <c r="S154">
         <v>1.9325000000000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T154">
+        <v>0</v>
+      </c>
+      <c r="U154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
@@ -9593,8 +10523,14 @@
       <c r="S155">
         <v>1.9175</v>
       </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T155">
+        <v>0</v>
+      </c>
+      <c r="U155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
@@ -9652,8 +10588,14 @@
       <c r="S156">
         <v>1.9075</v>
       </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T156">
+        <v>0</v>
+      </c>
+      <c r="U156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
@@ -9711,8 +10653,14 @@
       <c r="S157">
         <v>1.9075</v>
       </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T157">
+        <v>0</v>
+      </c>
+      <c r="U157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
@@ -9770,8 +10718,14 @@
       <c r="S158">
         <v>1.9075</v>
       </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T158">
+        <v>0</v>
+      </c>
+      <c r="U158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
@@ -9829,8 +10783,14 @@
       <c r="S159">
         <v>1.9175</v>
       </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
@@ -9888,8 +10848,14 @@
       <c r="S160">
         <v>1.915</v>
       </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T160">
+        <v>0</v>
+      </c>
+      <c r="U160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
@@ -9947,8 +10913,14 @@
       <c r="S161">
         <v>1.9224999999999999</v>
       </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T161">
+        <v>0</v>
+      </c>
+      <c r="U161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
@@ -10006,8 +10978,14 @@
       <c r="S162">
         <v>1.9175</v>
       </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T162">
+        <v>0</v>
+      </c>
+      <c r="U162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
@@ -10065,8 +11043,14 @@
       <c r="S163">
         <v>1.905</v>
       </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T163">
+        <v>0</v>
+      </c>
+      <c r="U163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
@@ -10124,8 +11108,14 @@
       <c r="S164">
         <v>1.895</v>
       </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T164">
+        <v>0</v>
+      </c>
+      <c r="U164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
@@ -10183,8 +11173,14 @@
       <c r="S165">
         <v>1.9275</v>
       </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T165">
+        <v>0</v>
+      </c>
+      <c r="U165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
@@ -10242,8 +11238,14 @@
       <c r="S166">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T166">
+        <v>0</v>
+      </c>
+      <c r="U166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
@@ -10301,8 +11303,14 @@
       <c r="S167">
         <v>1.9450000000000001</v>
       </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T167">
+        <v>0</v>
+      </c>
+      <c r="U167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
@@ -10360,8 +11368,14 @@
       <c r="S168">
         <v>1.9525000000000001</v>
       </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T168">
+        <v>0</v>
+      </c>
+      <c r="U168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
@@ -10419,8 +11433,14 @@
       <c r="S169">
         <v>1.9624999999999999</v>
       </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T169">
+        <v>0</v>
+      </c>
+      <c r="U169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
@@ -10478,8 +11498,14 @@
       <c r="S170">
         <v>1.91</v>
       </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T170">
+        <v>0</v>
+      </c>
+      <c r="U170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
@@ -10537,8 +11563,14 @@
       <c r="S171">
         <v>1.9075</v>
       </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T171">
+        <v>0</v>
+      </c>
+      <c r="U171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
@@ -10596,8 +11628,14 @@
       <c r="S172">
         <v>1.9025000000000001</v>
       </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T172">
+        <v>0</v>
+      </c>
+      <c r="U172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
@@ -10655,8 +11693,14 @@
       <c r="S173">
         <v>1.9075</v>
       </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T173">
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
@@ -10714,8 +11758,14 @@
       <c r="S174">
         <v>1.915</v>
       </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T174">
+        <v>0</v>
+      </c>
+      <c r="U174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
@@ -10773,8 +11823,14 @@
       <c r="S175">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T175">
+        <v>0</v>
+      </c>
+      <c r="U175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
@@ -10832,8 +11888,14 @@
       <c r="S176">
         <v>1.915</v>
       </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T176">
+        <v>0</v>
+      </c>
+      <c r="U176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
@@ -10891,8 +11953,14 @@
       <c r="S177">
         <v>1.9375</v>
       </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T177">
+        <v>0</v>
+      </c>
+      <c r="U177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
@@ -10950,8 +12018,14 @@
       <c r="S178">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T178">
+        <v>0</v>
+      </c>
+      <c r="U178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
@@ -11009,8 +12083,14 @@
       <c r="S179">
         <v>1.9175</v>
       </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T179">
+        <v>0</v>
+      </c>
+      <c r="U179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>178</v>
       </c>
@@ -11068,8 +12148,14 @@
       <c r="S180">
         <v>1.9224999999999999</v>
       </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T180">
+        <v>0</v>
+      </c>
+      <c r="U180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
@@ -11127,8 +12213,14 @@
       <c r="S181">
         <v>1.9175</v>
       </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T181">
+        <v>0</v>
+      </c>
+      <c r="U181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>180</v>
       </c>
@@ -11186,8 +12278,14 @@
       <c r="S182">
         <v>1.9125000000000001</v>
       </c>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T182">
+        <v>0</v>
+      </c>
+      <c r="U182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>181</v>
       </c>
@@ -11245,8 +12343,14 @@
       <c r="S183">
         <v>1.905</v>
       </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T183">
+        <v>0</v>
+      </c>
+      <c r="U183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>182</v>
       </c>
@@ -11304,8 +12408,14 @@
       <c r="S184">
         <v>1.905</v>
       </c>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T184">
+        <v>0</v>
+      </c>
+      <c r="U184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>183</v>
       </c>
@@ -11363,8 +12473,14 @@
       <c r="S185">
         <v>1.9025000000000001</v>
       </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T185">
+        <v>0</v>
+      </c>
+      <c r="U185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>184</v>
       </c>
@@ -11422,8 +12538,14 @@
       <c r="S186">
         <v>1.915</v>
       </c>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T186">
+        <v>0</v>
+      </c>
+      <c r="U186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>185</v>
       </c>
@@ -11481,8 +12603,14 @@
       <c r="S187">
         <v>1.915</v>
       </c>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T187">
+        <v>0</v>
+      </c>
+      <c r="U187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>186</v>
       </c>
@@ -11540,8 +12668,14 @@
       <c r="S188">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T188">
+        <v>0</v>
+      </c>
+      <c r="U188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>187</v>
       </c>
@@ -11599,8 +12733,14 @@
       <c r="S189">
         <v>1.9224999999999999</v>
       </c>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T189">
+        <v>0</v>
+      </c>
+      <c r="U189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>188</v>
       </c>
@@ -11658,8 +12798,14 @@
       <c r="S190">
         <v>1.9125000000000001</v>
       </c>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T190">
+        <v>0</v>
+      </c>
+      <c r="U190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>189</v>
       </c>
@@ -11717,8 +12863,14 @@
       <c r="S191">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T191">
+        <v>0</v>
+      </c>
+      <c r="U191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
@@ -11776,8 +12928,14 @@
       <c r="S192">
         <v>1.91</v>
       </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T192">
+        <v>0</v>
+      </c>
+      <c r="U192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>191</v>
       </c>
@@ -11834,6 +12992,12 @@
       </c>
       <c r="S193">
         <v>1.925</v>
+      </c>
+      <c r="T193">
+        <v>0</v>
+      </c>
+      <c r="U193">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
